--- a/datasets/power.xlsx
+++ b/datasets/power.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>-6.149012100387272</v>
+        <v>-6.149962975236082</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>-6.028704424991222</v>
+        <v>-6.027467314492975</v>
       </c>
       <c r="B3">
         <v>0.101010101010101</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>-5.888233467768426</v>
+        <v>-5.889781387642302</v>
       </c>
       <c r="B4">
         <v>0.202020202020202</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>-5.734101584414329</v>
+        <v>-5.735745057818036</v>
       </c>
       <c r="B5">
         <v>0.303030303030303</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>-5.560022672034599</v>
+        <v>-5.559858000436822</v>
       </c>
       <c r="B6">
         <v>0.404040404040404</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>-5.364365343199507</v>
+        <v>-5.362185508330541</v>
       </c>
       <c r="B7">
         <v>0.5050505050505051</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>-5.145027910717491</v>
+        <v>-5.144626120528562</v>
       </c>
       <c r="B8">
         <v>0.6060606060606061</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>-4.89755633925004</v>
+        <v>-4.90038660073276</v>
       </c>
       <c r="B9">
         <v>0.7070707070707071</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>-4.621502069249529</v>
+        <v>-4.622924042069117</v>
       </c>
       <c r="B10">
         <v>0.8080808080808081</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>-4.311367165093392</v>
+        <v>-4.310261949942363</v>
       </c>
       <c r="B11">
         <v>0.9090909090909091</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>-3.962719548015313</v>
+        <v>-3.960382716236589</v>
       </c>
       <c r="B12">
         <v>1.01010101010101</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>-3.568439511397181</v>
+        <v>-3.56870078757359</v>
       </c>
       <c r="B13">
         <v>1.111111111111111</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>-3.128191193153181</v>
+        <v>-3.128586086153017</v>
       </c>
       <c r="B14">
         <v>1.212121212121212</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>-2.635122186507961</v>
+        <v>-2.631731794912688</v>
       </c>
       <c r="B15">
         <v>1.313131313131313</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>-2.078288291710201</v>
+        <v>-2.077775492484548</v>
       </c>
       <c r="B16">
         <v>1.414141414141414</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>-1.453710732180725</v>
+        <v>-1.454776749477979</v>
       </c>
       <c r="B17">
         <v>1.515151515151515</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>-0.7547324353600304</v>
+        <v>-0.7535664707659607</v>
       </c>
       <c r="B18">
         <v>1.616161616161616</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.03317238823580856</v>
+        <v>0.03221077899054024</v>
       </c>
       <c r="B19">
         <v>1.717171717171717</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9156928881003991</v>
+        <v>0.9145622444628759</v>
       </c>
       <c r="B20">
         <v>1.818181818181818</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1.908167735697864</v>
+        <v>1.90668769769074</v>
       </c>
       <c r="B21">
         <v>1.919191919191919</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>3.019742575399737</v>
+        <v>3.020005671097936</v>
       </c>
       <c r="B22">
         <v>2.02020202020202</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4.271799744727714</v>
+        <v>4.272606833660464</v>
       </c>
       <c r="B23">
         <v>2.121212121212121</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5.676859592356294</v>
+        <v>5.677269063905282</v>
       </c>
       <c r="B24">
         <v>2.222222222222222</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>7.254263309232274</v>
+        <v>7.255398413121798</v>
       </c>
       <c r="B25">
         <v>2.323232323232323</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>9.024659246223786</v>
+        <v>9.024949432121986</v>
       </c>
       <c r="B26">
         <v>2.424242424242424</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>11.0135594012091</v>
+        <v>11.0134714308751</v>
       </c>
       <c r="B27">
         <v>2.525252525252525</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>13.24970335221367</v>
+        <v>13.24861952771186</v>
       </c>
       <c r="B28">
         <v>2.626262626262626</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>15.75603665973009</v>
+        <v>15.75691105218207</v>
       </c>
       <c r="B29">
         <v>2.727272727272727</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>18.57497852756484</v>
+        <v>18.57273708036506</v>
       </c>
       <c r="B30">
         <v>2.828282828282828</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>21.737324252455</v>
+        <v>21.73745104308652</v>
       </c>
       <c r="B31">
         <v>2.929292929292929</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>25.28878533097623</v>
+        <v>25.28955571178229</v>
       </c>
       <c r="B32">
         <v>3.03030303030303</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>29.27833019543402</v>
+        <v>29.27818490952145</v>
       </c>
       <c r="B33">
         <v>3.131313131313131</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>33.75997483957977</v>
+        <v>33.75851766109013</v>
       </c>
       <c r="B34">
         <v>3.232323232323232</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>38.78914310704376</v>
+        <v>38.78746741195924</v>
       </c>
       <c r="B35">
         <v>3.333333333333333</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>44.43646968131529</v>
+        <v>44.43657338771937</v>
       </c>
       <c r="B36">
         <v>3.434343434343434</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>50.78211391928673</v>
+        <v>50.78245210940143</v>
       </c>
       <c r="B37">
         <v>3.535353535353535</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>57.90603593702871</v>
+        <v>57.90599788005039</v>
       </c>
       <c r="B38">
         <v>3.636363636363636</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>65.90649412879731</v>
+        <v>65.90924434462565</v>
       </c>
       <c r="B39">
         <v>3.737373737373737</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>74.88996630279813</v>
+        <v>74.89216208306877</v>
       </c>
       <c r="B40">
         <v>3.838383838383838</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>84.98115871708016</v>
+        <v>84.97934202505957</v>
       </c>
       <c r="B41">
         <v>3.939393939393939</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>96.30938826983136</v>
+        <v>96.31005605176732</v>
       </c>
       <c r="B42">
         <v>4.040404040404041</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>109.0323044852986</v>
+        <v>109.0320199820283</v>
       </c>
       <c r="B43">
         <v>4.141414141414141</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>123.3174304784508</v>
+        <v>123.3191621449924</v>
       </c>
       <c r="B44">
         <v>4.242424242424242</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>139.3624723196172</v>
+        <v>139.3639375029747</v>
       </c>
       <c r="B45">
         <v>4.343434343434343</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>157.3797109276193</v>
+        <v>157.3803626385325</v>
       </c>
       <c r="B46">
         <v>4.444444444444445</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>177.61305575913</v>
+        <v>177.6137840937133</v>
       </c>
       <c r="B47">
         <v>4.545454545454545</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>200.3334540498272</v>
+        <v>200.3331282606032</v>
       </c>
       <c r="B48">
         <v>4.646464646464646</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>225.8507356198294</v>
+        <v>225.8470285654394</v>
       </c>
       <c r="B49">
         <v>4.747474747474747</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>254.5001542804618</v>
+        <v>254.5004091653879</v>
       </c>
       <c r="B50">
         <v>4.848484848484849</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>286.6748054628968</v>
+        <v>286.6765269058798</v>
       </c>
       <c r="B51">
         <v>4.94949494949495</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>322.8084682050294</v>
+        <v>322.8073578701804</v>
       </c>
       <c r="B52">
         <v>5.05050505050505</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>363.3847728433605</v>
+        <v>363.3843316391586</v>
       </c>
       <c r="B53">
         <v>5.151515151515151</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>408.9520257163464</v>
+        <v>408.9508502662714</v>
       </c>
       <c r="B54">
         <v>5.252525252525253</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>460.1189366970227</v>
+        <v>460.1199181205276</v>
       </c>
       <c r="B55">
         <v>5.353535353535354</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>517.5816870053974</v>
+        <v>517.5807864338833</v>
       </c>
       <c r="B56">
         <v>5.454545454545454</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>582.1084896587485</v>
+        <v>582.1092040188718</v>
       </c>
       <c r="B57">
         <v>5.555555555555555</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>654.5708312778255</v>
+        <v>654.572317424823</v>
       </c>
       <c r="B58">
         <v>5.656565656565657</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>735.9454071271745</v>
+        <v>735.9449339323113</v>
       </c>
       <c r="B59">
         <v>5.757575757575758</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>827.3251400306686</v>
+        <v>827.3255738050489</v>
       </c>
       <c r="B60">
         <v>5.858585858585858</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>929.9418437300608</v>
+        <v>929.942771525928</v>
       </c>
       <c r="B61">
         <v>5.959595959595959</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1045.180071210684</v>
+        <v>1045.180543080154</v>
       </c>
       <c r="B62">
         <v>6.060606060606061</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1174.589105056869</v>
+        <v>1174.588725133545</v>
       </c>
       <c r="B63">
         <v>6.161616161616162</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1319.909630463844</v>
+        <v>1319.910766207267</v>
       </c>
       <c r="B64">
         <v>6.262626262626262</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>1483.10365329971</v>
+        <v>1483.104168613353</v>
       </c>
       <c r="B65">
         <v>6.363636363636363</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>1666.362418898545</v>
+        <v>1666.363038751692</v>
       </c>
       <c r="B66">
         <v>6.464646464646465</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>1872.158297771726</v>
+        <v>1872.15863059752</v>
       </c>
       <c r="B67">
         <v>6.565656565656566</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>2103.261810113418</v>
+        <v>2103.261018282974</v>
       </c>
       <c r="B68">
         <v>6.666666666666667</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>2362.784834863997</v>
+        <v>2362.78571216394</v>
       </c>
       <c r="B69">
         <v>6.767676767676767</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>2654.223606002467</v>
+        <v>2654.221652856231</v>
       </c>
       <c r="B70">
         <v>6.868686868686869</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>2981.49877046121</v>
+        <v>2981.49724814592</v>
       </c>
       <c r="B71">
         <v>6.96969696969697</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>3349.021969972318</v>
+        <v>3349.022959955327</v>
       </c>
       <c r="B72">
         <v>7.070707070707071</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>3761.73879315619</v>
+        <v>3761.739941551502</v>
       </c>
       <c r="B73">
         <v>7.171717171717171</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>4225.209683839596</v>
+        <v>4225.209887765358</v>
       </c>
       <c r="B74">
         <v>7.272727272727272</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>4745.674357252617</v>
+        <v>4745.672756321925</v>
       </c>
       <c r="B75">
         <v>7.373737373737374</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>5330.141609438519</v>
+        <v>5330.142928352449</v>
       </c>
       <c r="B76">
         <v>7.474747474747475</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>5986.480953963945</v>
+        <v>5986.481588723943</v>
       </c>
       <c r="B77">
         <v>7.575757575757575</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>6723.537122751392</v>
+        <v>6723.53791640187</v>
       </c>
       <c r="B78">
         <v>7.676767676767676</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7551.22523996295</v>
+        <v>7551.226336211789</v>
       </c>
       <c r="B79">
         <v>7.777777777777778</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>8480.70107357087</v>
+        <v>8480.702338894436</v>
       </c>
       <c r="B80">
         <v>7.878787878787879</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>9524.472931668266</v>
+        <v>9524.474345133225</v>
       </c>
       <c r="B81">
         <v>7.979797979797979</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>10696.60535855635</v>
+        <v>10696.60455552484</v>
       </c>
       <c r="B82">
         <v>8.080808080808081</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>12012.87234549801</v>
+        <v>12012.87434539189</v>
       </c>
       <c r="B83">
         <v>8.181818181818182</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>13491.00645789156</v>
+        <v>13491.0072864508</v>
       </c>
       <c r="B84">
         <v>8.282828282828282</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>15150.91433481589</v>
+        <v>15150.91393804006</v>
       </c>
       <c r="B85">
         <v>8.383838383838384</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>17014.94325190282</v>
+        <v>17014.9419313997</v>
       </c>
       <c r="B86">
         <v>8.484848484848484</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>19108.19507460558</v>
+        <v>19108.19468507779</v>
       </c>
       <c r="B87">
         <v>8.585858585858587</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>21458.86047556719</v>
+        <v>21458.86126917536</v>
       </c>
       <c r="B88">
         <v>8.686868686868687</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>24098.59352593943</v>
+        <v>24098.59330403367</v>
       </c>
       <c r="B89">
         <v>8.787878787878787</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>27062.94399470634</v>
+        <v>27062.94158211902</v>
       </c>
       <c r="B90">
         <v>8.888888888888889</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>30391.82410107496</v>
+        <v>30391.82435760546</v>
       </c>
       <c r="B91">
         <v>8.98989898989899</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>34130.06837046782</v>
+        <v>34130.06840508896</v>
       </c>
       <c r="B92">
         <v>9.09090909090909</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>38328.01419396637</v>
+        <v>38328.01496749956</v>
       </c>
       <c r="B93">
         <v>9.191919191919192</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>43042.19338916663</v>
+        <v>43042.19572425576</v>
       </c>
       <c r="B94">
         <v>9.292929292929292</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>48336.08835346377</v>
+        <v>48336.08904027045</v>
       </c>
       <c r="B95">
         <v>9.393939393939394</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>54280.98739350407</v>
+        <v>54280.98662683627</v>
       </c>
       <c r="B96">
         <v>9.494949494949495</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>60956.94719558399</v>
+        <v>60956.94654562182</v>
       </c>
       <c r="B97">
         <v>9.595959595959595</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>68453.86667792239</v>
+        <v>68453.86736463614</v>
       </c>
       <c r="B98">
         <v>9.696969696969697</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>76872.70336940281</v>
+        <v>76872.70616320663</v>
       </c>
       <c r="B99">
         <v>9.797979797979798</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>86326.82861469436</v>
+        <v>86326.82862338734</v>
       </c>
       <c r="B100">
         <v>9.8989898989899</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>96943.55058124621</v>
+        <v>96943.55041963553</v>
       </c>
       <c r="B101">
         <v>10</v>
